--- a/biology/Botanique/Premna_obtusifolia/Premna_obtusifolia.xlsx
+++ b/biology/Botanique/Premna_obtusifolia/Premna_obtusifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Premna serratifolia L. est une espèce de plantes de la famille des Verbenaceae. On trouve l'espèce en Afrique, en Océanie, en Asie et dans quelques îles du Pacifique. À l'Île de France, on l’appelait arbre à la migraine parce qu’on pensait que l’application de ses feuilles au front soulageait les maux de tête. Elle s'appelle aussi Bois sureau à l'Île Maurice. Cette espèce peut être naturalisée ailleurs.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (29 octobre 2017)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (29 octobre 2017) :
 variété Premna serratifolia var. minor (Ridl.) A. Rajendran &amp; P. Daniel</t>
         </is>
       </c>
